--- a/data/136/BOI/External Debt_historical.xlsx
+++ b/data/136/BOI/External Debt_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="External Debt" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,332 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>Gross external debt position; direct investment: intercompany lending</t>
-  </si>
-  <si>
-    <t>Gross external debt position</t>
-  </si>
-  <si>
-    <t>Gross external debt position; long term; other debt liabilities; other sectors</t>
-  </si>
-  <si>
-    <t>Gross external debt position; short term; other debt liabilities; other sectors</t>
-  </si>
-  <si>
-    <t>Gross external debt position; long term; loans; other sectors</t>
-  </si>
-  <si>
-    <t>Gross external debt position; short term; loans; other sectors</t>
-  </si>
-  <si>
-    <t>Gross external debt position; long term; trade credit and advances; other sectors</t>
-  </si>
-  <si>
-    <t>Gross external debt position; short term; trade credit and advances; other sectors</t>
-  </si>
-  <si>
-    <t>Gross external debt position; long-term; other sectors</t>
-  </si>
-  <si>
-    <t>Gross external debt position; short-term; other sectors</t>
-  </si>
-  <si>
-    <t>Gross external debt position; other sectors</t>
-  </si>
-  <si>
-    <t>Gross external debt position; short term; other debt liabilities; central bank</t>
-  </si>
-  <si>
-    <t>Gross external debt position; short term; currency and deposits; central bank</t>
-  </si>
-  <si>
-    <t>Gross external debt position; short term; loans; central bank</t>
-  </si>
-  <si>
-    <t>Gross external debt position; central bank</t>
-  </si>
-  <si>
-    <t>Gross external debt position; short-term; central bank</t>
-  </si>
-  <si>
-    <t>Gross external debt position; short term; other debt liabilities; deposit-taking corporations except the CB</t>
-  </si>
-  <si>
-    <t>Gross external debt position; long term; currency and deposits; deposit-taking corporations except the CB</t>
-  </si>
-  <si>
-    <t>Gross external debt position; short term; currency and deposits; deposit-taking corporations except the CB</t>
-  </si>
-  <si>
-    <t>Gross external debt position; long term; loans; deposit-taking corporations except the CB</t>
-  </si>
-  <si>
-    <t>Gross external debt position; short term; loans; deposit-taking corporations except the CB</t>
-  </si>
-  <si>
-    <t>Gross external debt position; long-term; deposit-taking corporations except the CB</t>
-  </si>
-  <si>
-    <t>Gross external debt position; short-term; deposit-taking corporations except the CB</t>
-  </si>
-  <si>
-    <t>Gross external debt position; long term; other debt liabilities; general government</t>
-  </si>
-  <si>
-    <t>Gross external debt position; short term; other debt liabilities; general government</t>
-  </si>
-  <si>
-    <t>Gross external debt position; long term; loans; general government</t>
-  </si>
-  <si>
-    <t>Gross external debt position; short term; loans; general government</t>
-  </si>
-  <si>
-    <t>Gross external debt position; short term; trade credit and advances; general government</t>
-  </si>
-  <si>
-    <t>Gross external debt position; long-term; general government</t>
-  </si>
-  <si>
-    <t>Gross external debt position; general government</t>
-  </si>
-  <si>
-    <t>Gross external debt position; short-term; general government</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -692,239 +366,393 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:77">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:77">
-      <c r="A2" s="1" t="s">
-        <v>76</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; direct investment: intercompany lending</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>14.318</v>
@@ -1151,11 +979,13 @@
       <c r="BX2" t="n">
         <v>164.901</v>
       </c>
-      <c r="BY2" t="s"/>
+      <c r="BY2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:77">
-      <c r="A3" s="1" t="s">
-        <v>77</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>1065.674</v>
@@ -1382,11 +1212,13 @@
       <c r="BX3" t="n">
         <v>2362.795</v>
       </c>
-      <c r="BY3" t="s"/>
+      <c r="BY3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:77">
-      <c r="A4" s="1" t="s">
-        <v>78</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; long term; other debt liabilities; other sectors</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -1613,11 +1445,13 @@
       <c r="BX4" t="n">
         <v>4.759</v>
       </c>
-      <c r="BY4" t="s"/>
+      <c r="BY4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:77">
-      <c r="A5" s="1" t="s">
-        <v>79</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; short term; other debt liabilities; other sectors</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>2.761</v>
@@ -1844,11 +1678,13 @@
       <c r="BX5" t="n">
         <v>1.573</v>
       </c>
-      <c r="BY5" t="s"/>
+      <c r="BY5" t="inlineStr"/>
     </row>
-    <row r="6" spans="1:77">
-      <c r="A6" s="1" t="s">
-        <v>80</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; long term; loans; other sectors</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>18.814</v>
@@ -2075,11 +1911,13 @@
       <c r="BX6" t="n">
         <v>46.845</v>
       </c>
-      <c r="BY6" t="s"/>
+      <c r="BY6" t="inlineStr"/>
     </row>
-    <row r="7" spans="1:77">
-      <c r="A7" s="1" t="s">
-        <v>81</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; short term; loans; other sectors</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>67.845</v>
@@ -2306,11 +2144,13 @@
       <c r="BX7" t="n">
         <v>72.083</v>
       </c>
-      <c r="BY7" t="s"/>
+      <c r="BY7" t="inlineStr"/>
     </row>
-    <row r="8" spans="1:77">
-      <c r="A8" s="1" t="s">
-        <v>82</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; long term; trade credit and advances; other sectors</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>1.999</v>
@@ -2537,11 +2377,13 @@
       <c r="BX8" t="n">
         <v>3.219</v>
       </c>
-      <c r="BY8" t="s"/>
+      <c r="BY8" t="inlineStr"/>
     </row>
-    <row r="9" spans="1:77">
-      <c r="A9" s="1" t="s">
-        <v>83</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; short term; trade credit and advances; other sectors</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>21.719</v>
@@ -2768,11 +2610,13 @@
       <c r="BX9" t="n">
         <v>37.378</v>
       </c>
-      <c r="BY9" t="s"/>
+      <c r="BY9" t="inlineStr"/>
     </row>
-    <row r="10" spans="1:77">
-      <c r="A10" s="1" t="s">
-        <v>84</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; long-term; other sectors</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>120.472</v>
@@ -2999,11 +2843,13 @@
       <c r="BX10" t="n">
         <v>229.25</v>
       </c>
-      <c r="BY10" t="s"/>
+      <c r="BY10" t="inlineStr"/>
     </row>
-    <row r="11" spans="1:77">
-      <c r="A11" s="1" t="s">
-        <v>85</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; short-term; other sectors</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>92.325</v>
@@ -3230,11 +3076,13 @@
       <c r="BX11" t="n">
         <v>113.881</v>
       </c>
-      <c r="BY11" t="s"/>
+      <c r="BY11" t="inlineStr"/>
     </row>
-    <row r="12" spans="1:77">
-      <c r="A12" s="1" t="s">
-        <v>86</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; other sectors</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>212.797</v>
@@ -3461,11 +3309,13 @@
       <c r="BX12" t="n">
         <v>343.131</v>
       </c>
-      <c r="BY12" t="s"/>
+      <c r="BY12" t="inlineStr"/>
     </row>
-    <row r="13" spans="1:77">
-      <c r="A13" s="1" t="s">
-        <v>87</v>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; short term; other debt liabilities; central bank</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>0.031</v>
@@ -3692,11 +3542,13 @@
       <c r="BX13" t="n">
         <v>0</v>
       </c>
-      <c r="BY13" t="s"/>
+      <c r="BY13" t="inlineStr"/>
     </row>
-    <row r="14" spans="1:77">
-      <c r="A14" s="1" t="s">
-        <v>88</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; short term; currency and deposits; central bank</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>2.209</v>
@@ -3923,11 +3775,13 @@
       <c r="BX14" t="n">
         <v>544.033</v>
       </c>
-      <c r="BY14" t="s"/>
+      <c r="BY14" t="inlineStr"/>
     </row>
-    <row r="15" spans="1:77">
-      <c r="A15" s="1" t="s">
-        <v>89</v>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; short term; loans; central bank</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>2.868</v>
@@ -4154,11 +4008,13 @@
       <c r="BX15" t="n">
         <v>0</v>
       </c>
-      <c r="BY15" t="s"/>
+      <c r="BY15" t="inlineStr"/>
     </row>
-    <row r="16" spans="1:77">
-      <c r="A16" s="1" t="s">
-        <v>90</v>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; central bank</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>5.108</v>
@@ -4385,11 +4241,13 @@
       <c r="BX16" t="n">
         <v>551.926</v>
       </c>
-      <c r="BY16" t="s"/>
+      <c r="BY16" t="inlineStr"/>
     </row>
-    <row r="17" spans="1:77">
-      <c r="A17" s="1" t="s">
-        <v>91</v>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; short-term; central bank</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>5.108</v>
@@ -4616,11 +4474,13 @@
       <c r="BX17" t="n">
         <v>544.033</v>
       </c>
-      <c r="BY17" t="s"/>
+      <c r="BY17" t="inlineStr"/>
     </row>
-    <row r="18" spans="1:77">
-      <c r="A18" s="1" t="s">
-        <v>92</v>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; short term; other debt liabilities; deposit-taking corporations except the CB</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>15.944</v>
@@ -4847,11 +4707,13 @@
       <c r="BX18" t="n">
         <v>1.134</v>
       </c>
-      <c r="BY18" t="s"/>
+      <c r="BY18" t="inlineStr"/>
     </row>
-    <row r="19" spans="1:77">
-      <c r="A19" s="1" t="s">
-        <v>93</v>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; long term; currency and deposits; deposit-taking corporations except the CB</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>20.574</v>
@@ -5078,11 +4940,13 @@
       <c r="BX19" t="n">
         <v>108.86</v>
       </c>
-      <c r="BY19" t="s"/>
+      <c r="BY19" t="inlineStr"/>
     </row>
-    <row r="20" spans="1:77">
-      <c r="A20" s="1" t="s">
-        <v>94</v>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; short term; currency and deposits; deposit-taking corporations except the CB</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>164.323</v>
@@ -5309,11 +5173,13 @@
       <c r="BX20" t="n">
         <v>170.46</v>
       </c>
-      <c r="BY20" t="s"/>
+      <c r="BY20" t="inlineStr"/>
     </row>
-    <row r="21" spans="1:77">
-      <c r="A21" s="1" t="s">
-        <v>95</v>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; long term; loans; deposit-taking corporations except the CB</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -5540,11 +5406,13 @@
       <c r="BX21" t="n">
         <v>0</v>
       </c>
-      <c r="BY21" t="s"/>
+      <c r="BY21" t="inlineStr"/>
     </row>
-    <row r="22" spans="1:77">
-      <c r="A22" s="1" t="s">
-        <v>96</v>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; short term; loans; deposit-taking corporations except the CB</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -5771,11 +5639,13 @@
       <c r="BX22" t="n">
         <v>0</v>
       </c>
-      <c r="BY22" t="s"/>
+      <c r="BY22" t="inlineStr"/>
     </row>
-    <row r="23" spans="1:77">
-      <c r="A23" s="1" t="s">
-        <v>97</v>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; long-term; deposit-taking corporations except the CB</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>139.414</v>
@@ -6002,11 +5872,13 @@
       <c r="BX23" t="n">
         <v>237.045</v>
       </c>
-      <c r="BY23" t="s"/>
+      <c r="BY23" t="inlineStr"/>
     </row>
-    <row r="24" spans="1:77">
-      <c r="A24" s="1" t="s">
-        <v>98</v>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; short-term; deposit-taking corporations except the CB</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>208.068</v>
@@ -6233,11 +6105,13 @@
       <c r="BX24" t="n">
         <v>174.554</v>
       </c>
-      <c r="BY24" t="s"/>
+      <c r="BY24" t="inlineStr"/>
     </row>
-    <row r="25" spans="1:77">
-      <c r="A25" s="1" t="s">
-        <v>99</v>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; long term; other debt liabilities; general government</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>0.048</v>
@@ -6464,11 +6338,13 @@
       <c r="BX25" t="n">
         <v>5.081</v>
       </c>
-      <c r="BY25" t="s"/>
+      <c r="BY25" t="inlineStr"/>
     </row>
-    <row r="26" spans="1:77">
-      <c r="A26" s="1" t="s">
-        <v>100</v>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; short term; other debt liabilities; general government</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -6695,11 +6571,13 @@
       <c r="BX26" t="n">
         <v>0</v>
       </c>
-      <c r="BY26" t="s"/>
+      <c r="BY26" t="inlineStr"/>
     </row>
-    <row r="27" spans="1:77">
-      <c r="A27" s="1" t="s">
-        <v>101</v>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; long term; loans; general government</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>2.743</v>
@@ -6926,11 +6804,13 @@
       <c r="BX27" t="n">
         <v>77.81</v>
       </c>
-      <c r="BY27" t="s"/>
+      <c r="BY27" t="inlineStr"/>
     </row>
-    <row r="28" spans="1:77">
-      <c r="A28" s="1" t="s">
-        <v>102</v>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; short term; loans; general government</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>3.093</v>
@@ -7157,11 +7037,13 @@
       <c r="BX28" t="n">
         <v>0.253</v>
       </c>
-      <c r="BY28" t="s"/>
+      <c r="BY28" t="inlineStr"/>
     </row>
-    <row r="29" spans="1:77">
-      <c r="A29" s="1" t="s">
-        <v>103</v>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; short term; trade credit and advances; general government</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>0.018</v>
@@ -7388,11 +7270,13 @@
       <c r="BX29" t="n">
         <v>0.176</v>
       </c>
-      <c r="BY29" t="s"/>
+      <c r="BY29" t="inlineStr"/>
     </row>
-    <row r="30" spans="1:77">
-      <c r="A30" s="1" t="s">
-        <v>104</v>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; long-term; general government</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>473.595</v>
@@ -7619,11 +7503,13 @@
       <c r="BX30" t="n">
         <v>816.061</v>
       </c>
-      <c r="BY30" t="s"/>
+      <c r="BY30" t="inlineStr"/>
     </row>
-    <row r="31" spans="1:77">
-      <c r="A31" s="1" t="s">
-        <v>105</v>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; general government</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>485.969</v>
@@ -7850,11 +7736,13 @@
       <c r="BX31" t="n">
         <v>891.2380000000001</v>
       </c>
-      <c r="BY31" t="s"/>
+      <c r="BY31" t="inlineStr"/>
     </row>
-    <row r="32" spans="1:77">
-      <c r="A32" s="1" t="s">
-        <v>106</v>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Gross external debt position; short-term; general government</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>12.374</v>
@@ -8081,7 +7969,7 @@
       <c r="BX32" t="n">
         <v>75.17700000000001</v>
       </c>
-      <c r="BY32" t="s"/>
+      <c r="BY32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/136/BOI/External Debt_historical.xlsx
+++ b/data/136/BOI/External Debt_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BY32"/>
+  <dimension ref="A1:BZ32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,6 +747,11 @@
           <t>2021-Q3</t>
         </is>
       </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -974,12 +979,17 @@
         <v>167.784</v>
       </c>
       <c r="BW2" t="n">
-        <v>167.618</v>
+        <v>168.155</v>
       </c>
       <c r="BX2" t="n">
-        <v>164.901</v>
-      </c>
-      <c r="BY2" t="inlineStr"/>
+        <v>167.827</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>171.148</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>174.291</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1207,12 +1217,17 @@
         <v>2317.287</v>
       </c>
       <c r="BW3" t="n">
-        <v>2338.128</v>
+        <v>2337.699</v>
       </c>
       <c r="BX3" t="n">
-        <v>2362.795</v>
-      </c>
-      <c r="BY3" t="inlineStr"/>
+        <v>2363.983</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>2407.611</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>2443.292</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1440,12 +1455,17 @@
         <v>4.433</v>
       </c>
       <c r="BW4" t="n">
-        <v>4.545</v>
+        <v>4.734</v>
       </c>
       <c r="BX4" t="n">
-        <v>4.759</v>
-      </c>
-      <c r="BY4" t="inlineStr"/>
+        <v>4.956</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>6.082</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>5.809</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1673,12 +1693,17 @@
         <v>1.48</v>
       </c>
       <c r="BW5" t="n">
-        <v>1.603</v>
+        <v>1.723</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.573</v>
-      </c>
-      <c r="BY5" t="inlineStr"/>
+        <v>1.698</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>2.166</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>1.841</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1906,12 +1931,17 @@
         <v>46.34</v>
       </c>
       <c r="BW6" t="n">
-        <v>47.209</v>
+        <v>45.888</v>
       </c>
       <c r="BX6" t="n">
-        <v>46.845</v>
-      </c>
-      <c r="BY6" t="inlineStr"/>
+        <v>45.139</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>46.588</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>44.877</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2139,12 +2169,17 @@
         <v>54.553</v>
       </c>
       <c r="BW7" t="n">
-        <v>60.615</v>
+        <v>60.043</v>
       </c>
       <c r="BX7" t="n">
-        <v>72.083</v>
-      </c>
-      <c r="BY7" t="inlineStr"/>
+        <v>71.48399999999999</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>79.803</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>81.818</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2372,12 +2407,17 @@
         <v>3.016</v>
       </c>
       <c r="BW8" t="n">
-        <v>3.027</v>
+        <v>3.026</v>
       </c>
       <c r="BX8" t="n">
-        <v>3.219</v>
-      </c>
-      <c r="BY8" t="inlineStr"/>
+        <v>3.063</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>3.229</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>3.559</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2605,12 +2645,17 @@
         <v>36.558</v>
       </c>
       <c r="BW9" t="n">
-        <v>39.063</v>
+        <v>39.603</v>
       </c>
       <c r="BX9" t="n">
-        <v>37.378</v>
-      </c>
-      <c r="BY9" t="inlineStr"/>
+        <v>38.499</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>38.908</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>42.329</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2838,12 +2883,17 @@
         <v>216.684</v>
       </c>
       <c r="BW10" t="n">
-        <v>223.413</v>
+        <v>222.597</v>
       </c>
       <c r="BX10" t="n">
-        <v>229.25</v>
-      </c>
-      <c r="BY10" t="inlineStr"/>
+        <v>227.63</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>241.641</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3071,12 +3121,17 @@
         <v>95.389</v>
       </c>
       <c r="BW11" t="n">
-        <v>104.11</v>
+        <v>104.198</v>
       </c>
       <c r="BX11" t="n">
-        <v>113.881</v>
-      </c>
-      <c r="BY11" t="inlineStr"/>
+        <v>114.528</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>123.944</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>129.511</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3304,12 +3359,17 @@
         <v>312.073</v>
       </c>
       <c r="BW12" t="n">
-        <v>327.523</v>
+        <v>326.795</v>
       </c>
       <c r="BX12" t="n">
-        <v>343.131</v>
-      </c>
-      <c r="BY12" t="inlineStr"/>
+        <v>342.158</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>357.444</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>371.152</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3542,7 +3602,12 @@
       <c r="BX13" t="n">
         <v>0</v>
       </c>
-      <c r="BY13" t="inlineStr"/>
+      <c r="BY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3770,12 +3835,17 @@
         <v>530.837</v>
       </c>
       <c r="BW14" t="n">
-        <v>531.6560000000001</v>
+        <v>531.747</v>
       </c>
       <c r="BX14" t="n">
-        <v>544.033</v>
-      </c>
-      <c r="BY14" t="inlineStr"/>
+        <v>543.8100000000001</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>535.772</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>606.515</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4008,7 +4078,12 @@
       <c r="BX15" t="n">
         <v>0</v>
       </c>
-      <c r="BY15" t="inlineStr"/>
+      <c r="BY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4236,12 +4311,17 @@
         <v>538.588</v>
       </c>
       <c r="BW16" t="n">
-        <v>539.605</v>
+        <v>539.696</v>
       </c>
       <c r="BX16" t="n">
-        <v>551.926</v>
-      </c>
-      <c r="BY16" t="inlineStr"/>
+        <v>551.703</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>561.348</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>632.494</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4469,12 +4549,17 @@
         <v>530.837</v>
       </c>
       <c r="BW17" t="n">
-        <v>531.6560000000001</v>
+        <v>531.747</v>
       </c>
       <c r="BX17" t="n">
-        <v>544.033</v>
-      </c>
-      <c r="BY17" t="inlineStr"/>
+        <v>543.8100000000001</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>535.772</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>606.515</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4707,7 +4792,12 @@
       <c r="BX18" t="n">
         <v>1.134</v>
       </c>
-      <c r="BY18" t="inlineStr"/>
+      <c r="BY18" t="n">
+        <v>1.037</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0.731</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4940,7 +5030,12 @@
       <c r="BX19" t="n">
         <v>108.86</v>
       </c>
-      <c r="BY19" t="inlineStr"/>
+      <c r="BY19" t="n">
+        <v>107.275</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>107.374</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5173,7 +5268,12 @@
       <c r="BX20" t="n">
         <v>170.46</v>
       </c>
-      <c r="BY20" t="inlineStr"/>
+      <c r="BY20" t="n">
+        <v>182.54</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>176.82</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -5406,7 +5506,12 @@
       <c r="BX21" t="n">
         <v>0</v>
       </c>
-      <c r="BY21" t="inlineStr"/>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -5639,7 +5744,12 @@
       <c r="BX22" t="n">
         <v>0</v>
       </c>
-      <c r="BY22" t="inlineStr"/>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -5867,12 +5977,17 @@
         <v>240.918</v>
       </c>
       <c r="BW23" t="n">
-        <v>236.969</v>
+        <v>237.087</v>
       </c>
       <c r="BX23" t="n">
-        <v>237.045</v>
-      </c>
-      <c r="BY23" t="inlineStr"/>
+        <v>237.172</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>239.421</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>237.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -6105,7 +6220,12 @@
       <c r="BX24" t="n">
         <v>174.554</v>
       </c>
-      <c r="BY24" t="inlineStr"/>
+      <c r="BY24" t="n">
+        <v>186.77</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>181.435</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -6338,7 +6458,12 @@
       <c r="BX25" t="n">
         <v>5.081</v>
       </c>
-      <c r="BY25" t="inlineStr"/>
+      <c r="BY25" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>12.516</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -6571,7 +6696,12 @@
       <c r="BX26" t="n">
         <v>0</v>
       </c>
-      <c r="BY26" t="inlineStr"/>
+      <c r="BY26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -6799,12 +6929,17 @@
         <v>67.342</v>
       </c>
       <c r="BW27" t="n">
-        <v>77.751</v>
+        <v>77.304</v>
       </c>
       <c r="BX27" t="n">
-        <v>77.81</v>
-      </c>
-      <c r="BY27" t="inlineStr"/>
+        <v>77.14100000000001</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>93.059</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>92.965</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -7037,7 +7172,12 @@
       <c r="BX28" t="n">
         <v>0.253</v>
       </c>
-      <c r="BY28" t="inlineStr"/>
+      <c r="BY28" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="BZ28" t="n">
+        <v>0.257</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -7270,7 +7410,12 @@
       <c r="BX29" t="n">
         <v>0.176</v>
       </c>
-      <c r="BY29" t="inlineStr"/>
+      <c r="BY29" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>0.189</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -7498,12 +7643,17 @@
         <v>792.038</v>
       </c>
       <c r="BW30" t="n">
-        <v>827.248</v>
+        <v>826.801</v>
       </c>
       <c r="BX30" t="n">
-        <v>816.061</v>
-      </c>
-      <c r="BY30" t="inlineStr"/>
+        <v>815.3920000000001</v>
+      </c>
+      <c r="BY30" t="n">
+        <v>810.4010000000001</v>
+      </c>
+      <c r="BZ30" t="n">
+        <v>772.9690000000001</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -7731,12 +7881,17 @@
         <v>863.604</v>
       </c>
       <c r="BW31" t="n">
-        <v>893.331</v>
+        <v>892.884</v>
       </c>
       <c r="BX31" t="n">
-        <v>891.2380000000001</v>
-      </c>
-      <c r="BY31" t="inlineStr"/>
+        <v>890.5690000000001</v>
+      </c>
+      <c r="BY31" t="n">
+        <v>891.48</v>
+      </c>
+      <c r="BZ31" t="n">
+        <v>846.8200000000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -7969,7 +8124,12 @@
       <c r="BX32" t="n">
         <v>75.17700000000001</v>
       </c>
-      <c r="BY32" t="inlineStr"/>
+      <c r="BY32" t="n">
+        <v>81.07900000000001</v>
+      </c>
+      <c r="BZ32" t="n">
+        <v>73.851</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
